--- a/Lab 6/Data/Run_9.xlsx
+++ b/Lab 6/Data/Run_9.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kathryn\Dropbox\2015 Spring\LITEC\Labs\LITEC\Lab 6\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="3360" yWindow="3465" windowWidth="20115" windowHeight="6615"/>
   </bookViews>
@@ -513,8 +518,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -565,6 +571,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -853,25 +862,25 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>314</c:v>
+                  <c:v>-46</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>313</c:v>
+                  <c:v>-47</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>91</c:v>
+                  <c:v>-99</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>211</c:v>
+                  <c:v>-149</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>253</c:v>
+                  <c:v>-107</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>311</c:v>
+                  <c:v>-49</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>70</c:v>
@@ -886,7 +895,7 @@
                   <c:v>342</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>72</c:v>
+                  <c:v>288</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>215</c:v>
@@ -1224,11 +1233,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="124839040"/>
-        <c:axId val="123788672"/>
+        <c:axId val="405790048"/>
+        <c:axId val="405790440"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="124839040"/>
+        <c:axId val="405790048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1257,12 +1266,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123788672"/>
+        <c:crossAx val="405790440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="123788672"/>
+        <c:axId val="405790440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1292,7 +1301,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="124839040"/>
+        <c:crossAx val="405790048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1313,16 +1322,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1387,7 +1396,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1422,7 +1431,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1631,30 +1640,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E47"/>
+  <dimension ref="B1:E47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R21" sqref="R21"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2">
@@ -1667,7 +1676,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C3">
         <v>45</v>
       </c>
@@ -1678,7 +1687,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C4">
         <v>45</v>
       </c>
@@ -1689,7 +1698,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C5">
         <v>45</v>
       </c>
@@ -1700,7 +1709,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C6">
         <v>45</v>
       </c>
@@ -1711,7 +1720,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C7">
         <v>45</v>
       </c>
@@ -1722,7 +1731,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C8">
         <v>45</v>
       </c>
@@ -1733,7 +1742,7 @@
         <v>4400</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C9">
         <v>45</v>
       </c>
@@ -1744,7 +1753,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C10">
         <v>45</v>
       </c>
@@ -1755,7 +1764,7 @@
         <v>5600</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C11">
         <v>45</v>
       </c>
@@ -1766,7 +1775,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C12">
         <v>45</v>
       </c>
@@ -1777,7 +1786,7 @@
         <v>6400</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C13">
         <v>45</v>
       </c>
@@ -1788,7 +1797,7 @@
         <v>6800</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C14">
         <v>45</v>
       </c>
@@ -1799,7 +1808,7 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C15">
         <v>45</v>
       </c>
@@ -1810,7 +1819,7 @@
         <v>7600</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C16">
         <v>45</v>
       </c>
@@ -1958,7 +1967,7 @@
         <v>45</v>
       </c>
       <c r="D29">
-        <v>314</v>
+        <v>-46</v>
       </c>
       <c r="E29">
         <v>13200</v>
@@ -1969,7 +1978,7 @@
         <v>45</v>
       </c>
       <c r="D30">
-        <v>313</v>
+        <v>-47</v>
       </c>
       <c r="E30">
         <v>13600</v>
@@ -1991,7 +2000,7 @@
         <v>45</v>
       </c>
       <c r="D32">
-        <v>91</v>
+        <v>-99</v>
       </c>
       <c r="E32">
         <v>14400</v>
@@ -2002,7 +2011,7 @@
         <v>45</v>
       </c>
       <c r="D33">
-        <v>211</v>
+        <v>-149</v>
       </c>
       <c r="E33">
         <v>14800</v>
@@ -2013,7 +2022,7 @@
         <v>45</v>
       </c>
       <c r="D34">
-        <v>253</v>
+        <v>-107</v>
       </c>
       <c r="E34">
         <v>15200</v>
@@ -2024,7 +2033,7 @@
         <v>45</v>
       </c>
       <c r="D35">
-        <v>311</v>
+        <v>-49</v>
       </c>
       <c r="E35">
         <v>15600</v>
@@ -2079,7 +2088,7 @@
         <v>45</v>
       </c>
       <c r="D40">
-        <v>72</v>
+        <v>288</v>
       </c>
       <c r="E40">
         <v>17600</v>

--- a/Lab 6/Data/Run_9.xlsx
+++ b/Lab 6/Data/Run_9.xlsx
@@ -853,10 +853,10 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>314</c:v>
+                  <c:v>-46</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>313</c:v>
+                  <c:v>-47</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>8</c:v>
@@ -865,49 +865,49 @@
                   <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>211</c:v>
+                  <c:v>-31</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>253</c:v>
+                  <c:v>-107</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>311</c:v>
+                  <c:v>-49</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>172</c:v>
+                  <c:v>-8</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>257</c:v>
+                  <c:v>-103</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>342</c:v>
+                  <c:v>-18</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>215</c:v>
+                  <c:v>-35</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>269</c:v>
+                  <c:v>-91</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>356</c:v>
+                  <c:v>-4</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>226</c:v>
+                  <c:v>-46</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>223</c:v>
+                  <c:v>-43</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>191</c:v>
+                  <c:v>-11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1224,11 +1224,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="124839040"/>
-        <c:axId val="123788672"/>
+        <c:axId val="119184384"/>
+        <c:axId val="123908864"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="124839040"/>
+        <c:axId val="119184384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1257,12 +1257,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123788672"/>
+        <c:crossAx val="123908864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="123788672"/>
+        <c:axId val="123908864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1292,7 +1292,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="124839040"/>
+        <c:crossAx val="119184384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1633,8 +1633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R21" sqref="R21"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1958,7 +1958,7 @@
         <v>45</v>
       </c>
       <c r="D29">
-        <v>314</v>
+        <v>-46</v>
       </c>
       <c r="E29">
         <v>13200</v>
@@ -1969,7 +1969,7 @@
         <v>45</v>
       </c>
       <c r="D30">
-        <v>313</v>
+        <v>-47</v>
       </c>
       <c r="E30">
         <v>13600</v>
@@ -2002,7 +2002,7 @@
         <v>45</v>
       </c>
       <c r="D33">
-        <v>211</v>
+        <v>-31</v>
       </c>
       <c r="E33">
         <v>14800</v>
@@ -2013,7 +2013,7 @@
         <v>45</v>
       </c>
       <c r="D34">
-        <v>253</v>
+        <v>-107</v>
       </c>
       <c r="E34">
         <v>15200</v>
@@ -2024,7 +2024,7 @@
         <v>45</v>
       </c>
       <c r="D35">
-        <v>311</v>
+        <v>-49</v>
       </c>
       <c r="E35">
         <v>15600</v>
@@ -2046,7 +2046,7 @@
         <v>45</v>
       </c>
       <c r="D37">
-        <v>172</v>
+        <v>-8</v>
       </c>
       <c r="E37">
         <v>16400</v>
@@ -2057,7 +2057,7 @@
         <v>45</v>
       </c>
       <c r="D38">
-        <v>257</v>
+        <v>-103</v>
       </c>
       <c r="E38">
         <v>16800</v>
@@ -2068,7 +2068,7 @@
         <v>45</v>
       </c>
       <c r="D39">
-        <v>342</v>
+        <v>-18</v>
       </c>
       <c r="E39">
         <v>17200</v>
@@ -2090,7 +2090,7 @@
         <v>45</v>
       </c>
       <c r="D41">
-        <v>215</v>
+        <v>-35</v>
       </c>
       <c r="E41">
         <v>18000</v>
@@ -2101,7 +2101,7 @@
         <v>45</v>
       </c>
       <c r="D42">
-        <v>269</v>
+        <v>-91</v>
       </c>
       <c r="E42">
         <v>18400</v>
@@ -2112,7 +2112,7 @@
         <v>45</v>
       </c>
       <c r="D43">
-        <v>356</v>
+        <v>-4</v>
       </c>
       <c r="E43">
         <v>18800</v>
@@ -2134,7 +2134,7 @@
         <v>45</v>
       </c>
       <c r="D45">
-        <v>226</v>
+        <v>-46</v>
       </c>
       <c r="E45">
         <v>19600</v>
@@ -2145,7 +2145,7 @@
         <v>45</v>
       </c>
       <c r="D46">
-        <v>223</v>
+        <v>-43</v>
       </c>
       <c r="E46">
         <v>20000</v>
@@ -2156,7 +2156,7 @@
         <v>45</v>
       </c>
       <c r="D47">
-        <v>191</v>
+        <v>-11</v>
       </c>
       <c r="E47">
         <v>20400</v>

--- a/Lab 6/Data/Run_9.xlsx
+++ b/Lab 6/Data/Run_9.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Run_9" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>hkp: 0.8</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>Heading</t>
+  </si>
+  <si>
+    <t>Error</t>
   </si>
 </sst>
 </file>
@@ -764,150 +767,147 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Run_9!$D:$D</c:f>
+              <c:f>Run_9!$F$2:$F$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1048576"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>-17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>62</c:v>
+                  <c:v>-10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>55</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>38</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31</c:v>
+                  <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>47</c:v>
+                  <c:v>-19</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64</c:v>
+                  <c:v>-18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>63</c:v>
+                  <c:v>-13</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>58</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>29</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>25</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>27</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>39</c:v>
+                  <c:v>-7</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>52</c:v>
+                  <c:v>-24</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>69</c:v>
+                  <c:v>-29</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>74</c:v>
+                  <c:v>-24</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>69</c:v>
+                  <c:v>-11</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>56</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>14</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>10</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>39</c:v>
+                  <c:v>-21</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>66</c:v>
+                  <c:v>-45</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>90</c:v>
+                  <c:v>-70</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>115</c:v>
+                  <c:v>-53</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>98</c:v>
+                  <c:v>-7</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>52</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="28">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>-46</c:v>
                 </c:pt>
-                <c:pt idx="29">
-                  <c:v>-47</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>8</c:v>
-                </c:pt>
                 <c:pt idx="31">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-25</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-27</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-49</c:v>
+                </c:pt>
+                <c:pt idx="43">
                   <c:v>91</c:v>
                 </c:pt>
-                <c:pt idx="32">
-                  <c:v>-31</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-107</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>-49</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>-8</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>-103</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>-18</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>-35</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>-91</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>-4</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>94</c:v>
-                </c:pt>
                 <c:pt idx="44">
-                  <c:v>-46</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-43</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>-11</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1069,147 +1069,147 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Run_9!$C$2:$C$47</c:f>
+              <c:f>Run_9!$B$2:$B$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="46"/>
                 <c:pt idx="0">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1224,11 +1224,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="119184384"/>
-        <c:axId val="123908864"/>
+        <c:axId val="91753472"/>
+        <c:axId val="91759744"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="119184384"/>
+        <c:axId val="91753472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1257,12 +1257,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123908864"/>
+        <c:crossAx val="91759744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="123908864"/>
+        <c:axId val="91759744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1280,7 +1280,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Heading (degrees)</a:t>
+                  <a:t>Heading Error (degrees)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1292,7 +1292,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119184384"/>
+        <c:crossAx val="91753472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1631,15 +1631,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1652,11 +1652,17 @@
       <c r="E1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
       <c r="C2">
         <v>45</v>
       </c>
@@ -1666,8 +1672,15 @@
       <c r="E2">
         <v>400</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <f>C2-D2</f>
+        <v>-17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>0</v>
+      </c>
       <c r="C3">
         <v>45</v>
       </c>
@@ -1677,8 +1690,15 @@
       <c r="E3">
         <v>800</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <f t="shared" ref="F3:F47" si="0">C3-D3</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>0</v>
+      </c>
       <c r="C4">
         <v>45</v>
       </c>
@@ -1688,8 +1708,15 @@
       <c r="E4">
         <v>1600</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>0</v>
+      </c>
       <c r="C5">
         <v>45</v>
       </c>
@@ -1699,8 +1726,15 @@
       <c r="E5">
         <v>2400</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>0</v>
+      </c>
       <c r="C6">
         <v>45</v>
       </c>
@@ -1710,8 +1744,15 @@
       <c r="E6">
         <v>3200</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>0</v>
+      </c>
       <c r="C7">
         <v>45</v>
       </c>
@@ -1721,8 +1762,15 @@
       <c r="E7">
         <v>4000</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>-19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>0</v>
+      </c>
       <c r="C8">
         <v>45</v>
       </c>
@@ -1732,8 +1780,15 @@
       <c r="E8">
         <v>4400</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>-18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>0</v>
+      </c>
       <c r="C9">
         <v>45</v>
       </c>
@@ -1743,8 +1798,15 @@
       <c r="E9">
         <v>4800</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>-13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>0</v>
+      </c>
       <c r="C10">
         <v>45</v>
       </c>
@@ -1754,8 +1816,15 @@
       <c r="E10">
         <v>5600</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>0</v>
+      </c>
       <c r="C11">
         <v>45</v>
       </c>
@@ -1765,8 +1834,15 @@
       <c r="E11">
         <v>6000</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>0</v>
+      </c>
       <c r="C12">
         <v>45</v>
       </c>
@@ -1776,8 +1852,15 @@
       <c r="E12">
         <v>6400</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>0</v>
+      </c>
       <c r="C13">
         <v>45</v>
       </c>
@@ -1787,8 +1870,15 @@
       <c r="E13">
         <v>6800</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>0</v>
+      </c>
       <c r="C14">
         <v>45</v>
       </c>
@@ -1798,8 +1888,15 @@
       <c r="E14">
         <v>7200</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>0</v>
+      </c>
       <c r="C15">
         <v>45</v>
       </c>
@@ -1809,8 +1906,15 @@
       <c r="E15">
         <v>7600</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>-24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>0</v>
+      </c>
       <c r="C16">
         <v>45</v>
       </c>
@@ -1820,8 +1924,15 @@
       <c r="E16">
         <v>8000</v>
       </c>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>-29</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>0</v>
+      </c>
       <c r="C17">
         <v>45</v>
       </c>
@@ -1831,8 +1942,15 @@
       <c r="E17">
         <v>8400</v>
       </c>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>-24</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>0</v>
+      </c>
       <c r="C18">
         <v>45</v>
       </c>
@@ -1842,8 +1960,15 @@
       <c r="E18">
         <v>8800</v>
       </c>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>0</v>
+      </c>
       <c r="C19">
         <v>45</v>
       </c>
@@ -1853,8 +1978,15 @@
       <c r="E19">
         <v>9200</v>
       </c>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>0</v>
+      </c>
       <c r="C20">
         <v>45</v>
       </c>
@@ -1864,8 +1996,15 @@
       <c r="E20">
         <v>9600</v>
       </c>
-    </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>0</v>
+      </c>
       <c r="C21">
         <v>45</v>
       </c>
@@ -1875,8 +2014,15 @@
       <c r="E21">
         <v>10000</v>
       </c>
-    </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>0</v>
+      </c>
       <c r="C22">
         <v>45</v>
       </c>
@@ -1886,8 +2032,15 @@
       <c r="E22">
         <v>10400</v>
       </c>
-    </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>0</v>
+      </c>
       <c r="C23">
         <v>45</v>
       </c>
@@ -1897,8 +2050,15 @@
       <c r="E23">
         <v>10800</v>
       </c>
-    </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>0</v>
+      </c>
       <c r="C24">
         <v>45</v>
       </c>
@@ -1908,8 +2068,15 @@
       <c r="E24">
         <v>11200</v>
       </c>
-    </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>-45</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>0</v>
+      </c>
       <c r="C25">
         <v>45</v>
       </c>
@@ -1919,8 +2086,15 @@
       <c r="E25">
         <v>11600</v>
       </c>
-    </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>-70</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>0</v>
+      </c>
       <c r="C26">
         <v>45</v>
       </c>
@@ -1930,8 +2104,15 @@
       <c r="E26">
         <v>12000</v>
       </c>
-    </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>-53</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>0</v>
+      </c>
       <c r="C27">
         <v>45</v>
       </c>
@@ -1941,8 +2122,15 @@
       <c r="E27">
         <v>12400</v>
       </c>
-    </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>0</v>
+      </c>
       <c r="C28">
         <v>45</v>
       </c>
@@ -1952,8 +2140,15 @@
       <c r="E28">
         <v>12800</v>
       </c>
-    </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>0</v>
+      </c>
       <c r="C29">
         <v>45</v>
       </c>
@@ -1963,8 +2158,15 @@
       <c r="E29">
         <v>13200</v>
       </c>
-    </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>0</v>
+      </c>
       <c r="C30">
         <v>45</v>
       </c>
@@ -1974,8 +2176,15 @@
       <c r="E30">
         <v>13600</v>
       </c>
-    </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>0</v>
+      </c>
       <c r="C31">
         <v>45</v>
       </c>
@@ -1985,8 +2194,15 @@
       <c r="E31">
         <v>14000</v>
       </c>
-    </row>
-    <row r="32" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>0</v>
+      </c>
       <c r="C32">
         <v>45</v>
       </c>
@@ -1996,8 +2212,15 @@
       <c r="E32">
         <v>14400</v>
       </c>
-    </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>-46</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>0</v>
+      </c>
       <c r="C33">
         <v>45</v>
       </c>
@@ -2007,8 +2230,15 @@
       <c r="E33">
         <v>14800</v>
       </c>
-    </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>0</v>
+      </c>
       <c r="C34">
         <v>45</v>
       </c>
@@ -2018,8 +2248,15 @@
       <c r="E34">
         <v>15200</v>
       </c>
-    </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>0</v>
+      </c>
       <c r="C35">
         <v>45</v>
       </c>
@@ -2029,8 +2266,15 @@
       <c r="E35">
         <v>15600</v>
       </c>
-    </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>0</v>
+      </c>
       <c r="C36">
         <v>45</v>
       </c>
@@ -2040,8 +2284,15 @@
       <c r="E36">
         <v>16000</v>
       </c>
-    </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>0</v>
+      </c>
       <c r="C37">
         <v>45</v>
       </c>
@@ -2051,8 +2302,15 @@
       <c r="E37">
         <v>16400</v>
       </c>
-    </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>0</v>
+      </c>
       <c r="C38">
         <v>45</v>
       </c>
@@ -2062,8 +2320,15 @@
       <c r="E38">
         <v>16800</v>
       </c>
-    </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F38">
+        <f t="shared" si="0"/>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>0</v>
+      </c>
       <c r="C39">
         <v>45</v>
       </c>
@@ -2073,8 +2338,15 @@
       <c r="E39">
         <v>17200</v>
       </c>
-    </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>0</v>
+      </c>
       <c r="C40">
         <v>45</v>
       </c>
@@ -2084,8 +2356,15 @@
       <c r="E40">
         <v>17600</v>
       </c>
-    </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>-27</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>0</v>
+      </c>
       <c r="C41">
         <v>45</v>
       </c>
@@ -2095,8 +2374,15 @@
       <c r="E41">
         <v>18000</v>
       </c>
-    </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>0</v>
+      </c>
       <c r="C42">
         <v>45</v>
       </c>
@@ -2106,8 +2392,15 @@
       <c r="E42">
         <v>18400</v>
       </c>
-    </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F42">
+        <f t="shared" si="0"/>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>0</v>
+      </c>
       <c r="C43">
         <v>45</v>
       </c>
@@ -2117,8 +2410,15 @@
       <c r="E43">
         <v>18800</v>
       </c>
-    </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F43">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>0</v>
+      </c>
       <c r="C44">
         <v>45</v>
       </c>
@@ -2128,8 +2428,15 @@
       <c r="E44">
         <v>19200</v>
       </c>
-    </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F44">
+        <f t="shared" si="0"/>
+        <v>-49</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>0</v>
+      </c>
       <c r="C45">
         <v>45</v>
       </c>
@@ -2139,8 +2446,15 @@
       <c r="E45">
         <v>19600</v>
       </c>
-    </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F45">
+        <f t="shared" si="0"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>0</v>
+      </c>
       <c r="C46">
         <v>45</v>
       </c>
@@ -2150,8 +2464,15 @@
       <c r="E46">
         <v>20000</v>
       </c>
-    </row>
-    <row r="47" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F46">
+        <f t="shared" si="0"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>0</v>
+      </c>
       <c r="C47">
         <v>45</v>
       </c>
@@ -2160,6 +2481,10 @@
       </c>
       <c r="E47">
         <v>20400</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="0"/>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
